--- a/documents/Calendrier individuel de soutenance.xlsx
+++ b/documents/Calendrier individuel de soutenance.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia.fontana/Dropbox/PhD_Lyon_IPNL/THESIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fontana/Dropbox/PhD_Lyon_IPNL/THESIS/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Votre date prévisionnelle
 de Soutenance</t>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">*Pour les soutenances de thèses dont la date est comprise entre le 1er septembre et le 15 octobre de l'année en cours, le calendrier tient compte d'un délai supplémentaire de 4 semaines. </t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -2816,8 +2816,8 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2911,7 +2911,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="3">
         <f ca="1">TODAY()</f>
-        <v>43257</v>
+        <v>43363</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3122,11 +3122,10 @@
       <c r="H27" s="6"/>
       <c r="I27" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G27&lt;I8,"Hors délais (retard : "&amp;I8-G27&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G27-I8)&amp;""))</f>
-        <v>Dans les délais : J-121</v>
+        <v>Dans les délais : J-15</v>
       </c>
-      <c r="J27" s="13" t="str">
-        <f>IF(AND(G27&gt;DATEVALUE("27/07/2018"),G27&lt;DATEVALUE("20/08/2018")),"Cette échéance tombe durant la fermeture obligatoire de l'Université. Cette action sera réalisée dans les plus brefs délais à la réouverture du service le 20/08/2018","")</f>
-        <v/>
+      <c r="J27" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -3222,7 +3221,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G33&lt;I8,"Hors délais (retard : "&amp;I8-G33&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G33-I8)&amp;""))</f>
-        <v>Dans les délais : J-128</v>
+        <v>Dans les délais : J-22</v>
       </c>
       <c r="J33" s="13" t="str">
         <f>IF(AND(G33&gt;DATEVALUE("27/07/2018"),G33&lt;DATEVALUE("20/08/2018")),"Cette échéance tombe durant la fermeture obligatoire de l'Université. Cette action sera réalisée dans les plus brefs délais à la réouverture du service le 20/08/2018","")</f>
@@ -3327,7 +3326,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G39&lt;I8,"Hors délais (retard : "&amp;I8-G39&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G39-I8)&amp;""))</f>
-        <v>Dans les délais : J-135</v>
+        <v>Dans les délais : J-29</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3576,7 +3575,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G54&lt;I8,"Hors délais (retard : "&amp;I8-G54&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G54-I8)&amp;""))</f>
-        <v>Dans les délais : J-163</v>
+        <v>Dans les délais : J-57</v>
       </c>
       <c r="J54" s="13" t="str">
         <f>IF(AND(G54&gt;DATEVALUE("27/07/2018"),G54&lt;DATEVALUE("20/08/2018")),"Cette échéance tombe durant la fermeture obligatoire de l'Université. Cette action sera réalisée dans les plus brefs délais à la réouverture du service le 20/08/2017","")</f>
@@ -3697,7 +3696,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G61&lt;I8,"Hors délais (retard : "&amp;I8-G61&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G61-I8)&amp;""))</f>
-        <v>Dans les délais : J-170</v>
+        <v>Dans les délais : J-64</v>
       </c>
       <c r="J61" s="13" t="str">
         <f>IF(AND(G61&gt;DATEVALUE("27/07/2018"),G61&lt;DATEVALUE("20/08/2017")),"Cette échéance tombe durant la fermeture obligatoire de l'Université. Cette action sera réalisée dans les plus brefs délais à la réouverture du service le 20/08/2018","")</f>
@@ -3919,7 +3918,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="18" t="str">
         <f ca="1">IF(G18="","",(IF(G74&lt;I8,"Hors délais (retard : "&amp;I8-G74&amp;" "&amp;"jours)","Dans les délais"&amp;" "&amp;": J-"&amp;G74-I8)&amp;""))</f>
-        <v>Dans les délais : J-281</v>
+        <v>Dans les délais : J-175</v>
       </c>
       <c r="J74" s="13" t="str">
         <f>IF(AND(G74&gt;DATEVALUE("27/07/2018"),G74&lt;DATEVALUE("20/08/2018")),"Cette échéance tombe durant la fermeture obligatoire de l'Université. Cette action sera réalisée dans les plus brefs délais à la réouverture du service le 20/08/2018","")</f>
@@ -4016,6 +4015,22 @@
     <protectedRange algorithmName="SHA-512" hashValue="cdJ+a8pPbX57dbKvZhAjKevnvuWySKFJFirWIFCKRS1M63Sa0uTfdiDWXlhAoPCq/4vMdT2KANN66djY9aWMjA==" saltValue="rwNpNAq8OE+taBy9RDCX6A==" spinCount="100000" sqref="G18" name="Plage1"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="J27:N29"/>
+    <mergeCell ref="J33:N35"/>
+    <mergeCell ref="J44:N46"/>
+    <mergeCell ref="G39:G50"/>
+    <mergeCell ref="I39:I50"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="G1:K7"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="J74:N76"/>
     <mergeCell ref="G74:G76"/>
     <mergeCell ref="I74:I76"/>
@@ -4027,22 +4042,6 @@
     <mergeCell ref="G68:G70"/>
     <mergeCell ref="J54:N56"/>
     <mergeCell ref="J61:N63"/>
-    <mergeCell ref="G1:K7"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J27:N29"/>
-    <mergeCell ref="J33:N35"/>
-    <mergeCell ref="J44:N46"/>
-    <mergeCell ref="G39:G50"/>
-    <mergeCell ref="I39:I50"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:I35"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:I29">
     <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Hors délais">
